--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H2">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I2">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J2">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>68.39913609858235</v>
+        <v>54.33194925786357</v>
       </c>
       <c r="R2">
-        <v>615.5922248872411</v>
+        <v>488.987543320772</v>
       </c>
       <c r="S2">
-        <v>0.0004204388652575646</v>
+        <v>0.0005905156085310702</v>
       </c>
       <c r="T2">
-        <v>0.0004384945672932445</v>
+        <v>0.0006598765889093801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H3">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I3">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J3">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>262.9675877712686</v>
+        <v>272.8704446211812</v>
       </c>
       <c r="R3">
-        <v>2366.708289941418</v>
+        <v>2455.834001590631</v>
       </c>
       <c r="S3">
-        <v>0.001616420915649002</v>
+        <v>0.002965736713970358</v>
       </c>
       <c r="T3">
-        <v>0.001685837938738245</v>
+        <v>0.003314087211490033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H4">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I4">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J4">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>444.4230512570055</v>
+        <v>567.88025014483</v>
       </c>
       <c r="R4">
-        <v>3999.807461313049</v>
+        <v>5110.92225130347</v>
       </c>
       <c r="S4">
-        <v>0.002731799464477047</v>
+        <v>0.006172098665105706</v>
       </c>
       <c r="T4">
-        <v>0.002849116299878576</v>
+        <v>0.006897063099946492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H5">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I5">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J5">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>221.0160847152447</v>
+        <v>277.4869576248925</v>
       </c>
       <c r="R5">
-        <v>1326.096508291468</v>
+        <v>1664.921745749355</v>
       </c>
       <c r="S5">
-        <v>0.001358551542630861</v>
+        <v>0.003015912034806719</v>
       </c>
       <c r="T5">
-        <v>0.0009445962620773217</v>
+        <v>0.00224677069465844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H6">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I6">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J6">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>1026.046815011221</v>
+        <v>414.6692912683601</v>
       </c>
       <c r="R6">
-        <v>9234.421335100989</v>
+        <v>3732.023621415241</v>
       </c>
       <c r="S6">
-        <v>0.006306950397483124</v>
+        <v>0.004506900492568707</v>
       </c>
       <c r="T6">
-        <v>0.006577801706771589</v>
+        <v>0.005036273522029631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J7">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>3087.493985816088</v>
+        <v>2363.504939390776</v>
       </c>
       <c r="R7">
-        <v>27787.4458723448</v>
+        <v>21271.54445451698</v>
       </c>
       <c r="S7">
-        <v>0.01897834595476677</v>
+        <v>0.02568813702829802</v>
       </c>
       <c r="T7">
-        <v>0.01979336898904168</v>
+        <v>0.02870542284197414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J8">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>11870.19152607666</v>
@@ -948,10 +948,10 @@
         <v>106831.7237346899</v>
       </c>
       <c r="S8">
-        <v>0.07296422353084468</v>
+        <v>0.1290131031215856</v>
       </c>
       <c r="T8">
-        <v>0.07609766429524836</v>
+        <v>0.1441667674530347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J9">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>20060.97702661597</v>
+        <v>24703.47179759095</v>
       </c>
       <c r="R9">
-        <v>180548.7932395438</v>
+        <v>222331.2461783186</v>
       </c>
       <c r="S9">
-        <v>0.1233117097396104</v>
+        <v>0.2684936925813173</v>
       </c>
       <c r="T9">
-        <v>0.1286073179065783</v>
+        <v>0.3000305147648293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I10">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J10">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>9976.52706232178</v>
+        <v>12071.01537716377</v>
       </c>
       <c r="R10">
-        <v>59859.16237393068</v>
+        <v>72426.09226298259</v>
       </c>
       <c r="S10">
-        <v>0.06132416221234833</v>
+        <v>0.1311957897406396</v>
       </c>
       <c r="T10">
-        <v>0.04263848119345671</v>
+        <v>0.09773721920597402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I11">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J11">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>46315.10792690489</v>
+        <v>18038.6113790054</v>
       </c>
       <c r="R11">
-        <v>416835.9713421441</v>
+        <v>162347.5024110486</v>
       </c>
       <c r="S11">
-        <v>0.2846917743669153</v>
+        <v>0.1960555754216229</v>
       </c>
       <c r="T11">
-        <v>0.2969178321240378</v>
+        <v>0.2190839369474165</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H12">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I12">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J12">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>125.8223773082803</v>
+        <v>240.3693284037178</v>
       </c>
       <c r="R12">
-        <v>1132.401395774523</v>
+        <v>2163.32395563346</v>
       </c>
       <c r="S12">
-        <v>0.0007734106095032824</v>
+        <v>0.002612493057461629</v>
       </c>
       <c r="T12">
-        <v>0.0008066246452891274</v>
+        <v>0.00291935214311361</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H13">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I13">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J13">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>483.7372068664279</v>
+        <v>1207.202878062106</v>
       </c>
       <c r="R13">
-        <v>4353.634861797851</v>
+        <v>10864.82590255895</v>
       </c>
       <c r="S13">
-        <v>0.002973457472396352</v>
+        <v>0.01312068040805896</v>
       </c>
       <c r="T13">
-        <v>0.003101152285064217</v>
+        <v>0.01466181368749465</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H14">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I14">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J14">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>817.530279317594</v>
+        <v>2512.35223851815</v>
       </c>
       <c r="R14">
-        <v>7357.772513858346</v>
+        <v>22611.17014666335</v>
       </c>
       <c r="S14">
-        <v>0.005025231641150994</v>
+        <v>0.02730590805663428</v>
       </c>
       <c r="T14">
-        <v>0.005241039675732451</v>
+        <v>0.03051321456228187</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H15">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I15">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J15">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>406.5660882348007</v>
+        <v>1227.626738155962</v>
       </c>
       <c r="R15">
-        <v>2439.396529408804</v>
+        <v>7365.760428935775</v>
       </c>
       <c r="S15">
-        <v>0.002499098593047719</v>
+        <v>0.01334266044626146</v>
       </c>
       <c r="T15">
-        <v>0.001737614742966722</v>
+        <v>0.009939911420977419</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H16">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I16">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J16">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>1887.445614930463</v>
+        <v>1834.53346352</v>
       </c>
       <c r="R16">
-        <v>16987.01053437417</v>
+        <v>16510.80117168</v>
       </c>
       <c r="S16">
-        <v>0.0116018350207376</v>
+        <v>0.01993892469124571</v>
       </c>
       <c r="T16">
-        <v>0.01210007458304168</v>
+        <v>0.02228091759421795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H17">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I17">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J17">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>81.4654395068045</v>
+        <v>469.9237843977247</v>
       </c>
       <c r="R17">
-        <v>488.792637040827</v>
+        <v>2819.542706386348</v>
       </c>
       <c r="S17">
-        <v>0.0005007554027376021</v>
+        <v>0.005107442918895149</v>
       </c>
       <c r="T17">
-        <v>0.000348173526581823</v>
+        <v>0.003804903108041014</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H18">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I18">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J18">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>313.2023492658499</v>
+        <v>2360.090402390938</v>
       </c>
       <c r="R18">
-        <v>1879.214095595099</v>
+        <v>14160.54241434563</v>
       </c>
       <c r="S18">
-        <v>0.001925206191662217</v>
+        <v>0.02565102557873928</v>
       </c>
       <c r="T18">
-        <v>0.001338589310237433</v>
+        <v>0.01910930156221845</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H19">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I19">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J19">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>529.3212935529672</v>
+        <v>4911.666889885454</v>
       </c>
       <c r="R19">
-        <v>3175.927761317803</v>
+        <v>29470.00133931273</v>
       </c>
       <c r="S19">
-        <v>0.003253655772747229</v>
+        <v>0.05338324875143027</v>
       </c>
       <c r="T19">
-        <v>0.002262255780941259</v>
+        <v>0.03976903752368954</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H20">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I20">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J20">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>263.2368404982491</v>
+        <v>2400.019197345986</v>
       </c>
       <c r="R20">
-        <v>1052.947361992996</v>
+        <v>9600.076789383946</v>
       </c>
       <c r="S20">
-        <v>0.001618075970339109</v>
+        <v>0.02608499816711241</v>
       </c>
       <c r="T20">
-        <v>0.0007500284753665539</v>
+        <v>0.01295506605756452</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H21">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I21">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J21">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>1222.05278468683</v>
+        <v>3586.526257350269</v>
       </c>
       <c r="R21">
-        <v>7332.316708120983</v>
+        <v>21519.15754410162</v>
       </c>
       <c r="S21">
-        <v>0.007511768647750906</v>
+        <v>0.03898074271769899</v>
       </c>
       <c r="T21">
-        <v>0.005222907165166791</v>
+        <v>0.02903957057877495</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H22">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I22">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J22">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>2137.723792854284</v>
+        <v>21.33578447656</v>
       </c>
       <c r="R22">
-        <v>19239.51413568855</v>
+        <v>192.02206028904</v>
       </c>
       <c r="S22">
-        <v>0.01314025610508231</v>
+        <v>0.0002318914363603492</v>
       </c>
       <c r="T22">
-        <v>0.01370456299607476</v>
+        <v>0.0002591290184579646</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H23">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I23">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J23">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>8218.701305202439</v>
+        <v>107.15435532838</v>
       </c>
       <c r="R23">
-        <v>73968.31174682197</v>
+        <v>964.3891979554201</v>
       </c>
       <c r="S23">
-        <v>0.05051908032390775</v>
+        <v>0.001164624501933082</v>
       </c>
       <c r="T23">
-        <v>0.05268861681736742</v>
+        <v>0.001301419357242024</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H24">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I24">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J24">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>13889.849857105</v>
+        <v>223.0026861006</v>
       </c>
       <c r="R24">
-        <v>125008.648713945</v>
+        <v>2007.0241749054</v>
       </c>
       <c r="S24">
-        <v>0.08537874958102303</v>
+        <v>0.002423740887001211</v>
       </c>
       <c r="T24">
-        <v>0.08904533083694353</v>
+        <v>0.002708429456916554</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H25">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I25">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J25">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>6907.563016853208</v>
+        <v>108.96722837685</v>
       </c>
       <c r="R25">
-        <v>41445.37810111926</v>
+        <v>653.8033702611001</v>
       </c>
       <c r="S25">
-        <v>0.04245971692266851</v>
+        <v>0.001184328006887893</v>
       </c>
       <c r="T25">
-        <v>0.02952209661206179</v>
+        <v>0.0008822914687263042</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H26">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I26">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J26">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>32067.72503486789</v>
+        <v>162.83779154618</v>
       </c>
       <c r="R26">
-        <v>288609.525313811</v>
+        <v>1465.54012391562</v>
       </c>
       <c r="S26">
-        <v>0.1971153247552625</v>
+        <v>0.001769828965833227</v>
       </c>
       <c r="T26">
-        <v>0.2055804212640426</v>
+        <v>0.001977710130020379</v>
       </c>
     </row>
   </sheetData>
